--- a/master_database.xlsx
+++ b/master_database.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\deparibar_album\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\local_work\deparibar_album\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716771C6-9C0F-4B5B-9D3F-E2F25570B124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8A0E38-888E-423B-B249-B2E36095A99C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{E6F01285-F358-4F23-9BC6-DE4995849588}"/>
   </bookViews>
@@ -66,9 +66,6 @@
     <t>others</t>
   </si>
   <si>
-    <t>Tandrima_Abhishek Marriage (Sardanga)</t>
-  </si>
-  <si>
     <t>https://youtu.be/UB_zKSXNhC8</t>
   </si>
   <si>
@@ -90,9 +87,6 @@
     <t>Ipsa Sougata Marriage (Kolkata)</t>
   </si>
   <si>
-    <t>Sougata Ipsa Marriage (Sindhri)</t>
-  </si>
-  <si>
     <t>Dipankar Rimi Marriage (Katwa)</t>
   </si>
   <si>
@@ -346,6 +340,12 @@
   </si>
   <si>
     <t>Dipankar Rimi Marriage (Slideshow)</t>
+  </si>
+  <si>
+    <t>Abhishek Tandrima Marriage (Sardanga)</t>
+  </si>
+  <si>
+    <t>Ipsa Sougata Marriage (Sindhri)</t>
   </si>
 </sst>
 </file>
@@ -433,6 +433,16 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor theme="7" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -443,7 +453,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -463,17 +473,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -789,8 +789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D20EBA8A-9EE6-415D-9124-6EB5097B701F}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -820,13 +820,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -834,13 +834,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -848,13 +848,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -862,13 +862,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -876,13 +876,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -890,13 +890,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -904,13 +904,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -918,13 +918,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -932,13 +932,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -946,13 +946,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -960,13 +960,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -974,13 +974,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -988,13 +988,13 @@
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1002,13 +1002,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1016,13 +1016,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1030,13 +1030,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1044,13 +1044,13 @@
         <v>7</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1058,13 +1058,13 @@
         <v>7</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1072,13 +1072,13 @@
         <v>7</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1086,13 +1086,13 @@
         <v>7</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1100,13 +1100,13 @@
         <v>7</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1114,13 +1114,13 @@
         <v>7</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1128,13 +1128,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1142,13 +1142,13 @@
         <v>5</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1156,13 +1156,13 @@
         <v>5</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1170,13 +1170,13 @@
         <v>6</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1184,13 +1184,13 @@
         <v>6</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1198,13 +1198,13 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1212,32 +1212,32 @@
         <v>5</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="D30" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"marriage"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"durgapuja"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"family function"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"jatrapala"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"family function"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1274,57 +1274,57 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/master_database.xlsx
+++ b/master_database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\local_work\deparibar_album\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8A0E38-888E-423B-B249-B2E36095A99C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4889C01F-C8A8-412F-8383-A27EA1EABF80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{E6F01285-F358-4F23-9BC6-DE4995849588}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{E6F01285-F358-4F23-9BC6-DE4995849588}"/>
   </bookViews>
   <sheets>
     <sheet name="videos" sheetId="1" r:id="rId1"/>
@@ -312,18 +312,6 @@
     <t>img/icons/BM.jpg</t>
   </si>
   <si>
-    <t>img/icons/DP.png</t>
-  </si>
-  <si>
-    <t>img/icons/FF.jpg</t>
-  </si>
-  <si>
-    <t>img/icons/JP.jpg</t>
-  </si>
-  <si>
-    <t>img/icons/P.png</t>
-  </si>
-  <si>
     <t>Marriage Videos</t>
   </si>
   <si>
@@ -346,6 +334,18 @@
   </si>
   <si>
     <t>Ipsa Sougata Marriage (Sindhri)</t>
+  </si>
+  <si>
+    <t>img/icons/DP.jpg</t>
+  </si>
+  <si>
+    <t>img/icons/FFF.jpg</t>
+  </si>
+  <si>
+    <t>img/icons/JPP.jpg</t>
+  </si>
+  <si>
+    <t>img/icons/O.jpg</t>
   </si>
 </sst>
 </file>
@@ -789,7 +789,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D20EBA8A-9EE6-415D-9124-6EB5097B701F}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -820,7 +820,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -904,7 +904,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>38</v>
@@ -946,7 +946,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>41</v>
@@ -1250,8 +1250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1621087E-9CAB-429B-A60B-3A7ECF272E00}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1274,7 +1274,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>85</v>
@@ -1285,46 +1285,46 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>86</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>89</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
